--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Apps\SLIIT\PC\pc-assignment-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Apps\SLIIT\PC\parallel-gradient-descent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DA9C16-0F9A-4E79-8A23-4B2CACD62C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10468101-3101-44EB-9C6E-7969D66B20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omp" sheetId="1" r:id="rId1"/>
+    <sheet name="mpi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Number of Threads vs Time</t>
   </si>
@@ -101,6 +102,9 @@
   <si>
     <t>12 threads, guided schedule, 100 chunk size</t>
   </si>
+  <si>
+    <t>2 processors</t>
+  </si>
 </sst>
 </file>
 
@@ -151,19 +155,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,13 +396,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -407,9 +424,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -425,13 +450,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -528,7 +567,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Threads</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -895,7 +934,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -974,6 +1013,502 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1791852384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Threads/Processors VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpi!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.298429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14648900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29320200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.241762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.232768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8ABA-458F-8AF0-CBFDF3E509A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1724225536"/>
+        <c:axId val="1463424128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1724225536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Threads/Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463424128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463424128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724225536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,6 +1644,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1613,6 +2188,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2184,6 +3262,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB4AE92-3F58-4763-8738-8965A0A7368F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2457,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,19 +3589,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2546,16 +3667,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2717,4 +3838,101 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6122278A-2243-48B4-AC5D-FE382DFE4CCE}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.298429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.14648900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.29320200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.241762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.241539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.232768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>